--- a/Data/2016/Volby 2016.xlsx
+++ b/Data/2016/Volby 2016.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eef0741620b644d4/Princípy datovej vedy/PROJEKT/Data/2016/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eef0741620b644d4/Princípy datovej vedy/Projekt Git/PDV-Slovak-election-prediction/data/2016/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{32DD6774-4AC5-4E1A-ADC1-6322E2F17472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5FEA15B-91FF-4923-9935-7FC9F536ADF4}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{32DD6774-4AC5-4E1A-ADC1-6322E2F17472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4547160-3370-4FE3-8665-22FA182E225A}"/>
   <bookViews>
-    <workbookView xWindow="4005" yWindow="4770" windowWidth="28800" windowHeight="15345" xr2:uid="{65058EB6-5DC7-40C9-9DF6-96B9FCA98200}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{65058EB6-5DC7-40C9-9DF6-96B9FCA98200}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Polotický subjekt</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>Sloboda a Solidarita</t>
+  </si>
+  <si>
+    <t>3595</t>
   </si>
 </sst>
 </file>
@@ -545,7 +548,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,8 +803,8 @@
       <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="4">
-        <v>3595</v>
+      <c r="B23" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C23" s="4">
         <v>0.13</v>

--- a/Data/2016/Volby 2016.xlsx
+++ b/Data/2016/Volby 2016.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="2" documentId="8_{32DD6774-4AC5-4E1A-ADC1-6322E2F17472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4547160-3370-4FE3-8665-22FA182E225A}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{65058EB6-5DC7-40C9-9DF6-96B9FCA98200}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="11700" windowHeight="20985" xr2:uid="{65058EB6-5DC7-40C9-9DF6-96B9FCA98200}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -246,6 +246,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -548,7 +552,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
